--- a/Test_execution/TestStatusReport_projectPrincialAlexandra (1).xlsx
+++ b/Test_execution/TestStatusReport_projectPrincialAlexandra (1).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
   <si>
     <t xml:space="preserve">Test Suite/Scenario</t>
   </si>
@@ -204,28 +204,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="0"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Mesaj de eroare :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Username and password do not match any user in this service</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">4. Doar user completat</t>
   </si>
   <si>
@@ -666,7 +644,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -749,13 +727,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -805,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -817,6 +788,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -853,7 +831,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,6 +880,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -914,7 +896,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,6 +906,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -942,19 +928,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1260,8 +1246,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1372,17 +1358,17 @@
         <v>19</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>24</v>
@@ -1390,25 +1376,25 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>32</v>
+      <c r="H5" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>24</v>
@@ -1416,25 +1402,25 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>36</v>
+      <c r="H6" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>24</v>
@@ -1442,25 +1428,25 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>40</v>
+      <c r="H7" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>24</v>
@@ -1468,1491 +1454,1491 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="17" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="J32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="J33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="J36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="J37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="J38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="J40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="J41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="J42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="J44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="J45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="J46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="J47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="J48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="J49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="J50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="J50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="J51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="J52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="J53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="J53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="J54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="J55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="J56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="J58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="J58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="J59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="J59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="J60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="J61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="J63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="J63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="J64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="J64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="J65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="J65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="J66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="J66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="J67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="J68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="J68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="J69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="J70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="J71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="J72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="J72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="J73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="J73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="J74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="J74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="J75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="J76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="J76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="J77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="J78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="J78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="J79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="J79" s="23"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="J80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="J80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="J81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="J81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="J82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="J82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="J83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="J83" s="23"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="J84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="J85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="J85" s="23"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="J86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="J86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="J87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="J87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="J88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="J88" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="J89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="J89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="J90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="J91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="J91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="J92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="J92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="J93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="J93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="J94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="J94" s="23"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="J95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="J95" s="23"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="J96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="J96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="J97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="J97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="J98" s="21"/>
+      <c r="B98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="J98" s="23"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="J99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="J99" s="23"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="J100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="J100" s="23"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="J101" s="21"/>
+      <c r="B101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="J101" s="23"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="J102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="J102" s="23"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="J103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="J103" s="23"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="J104" s="21"/>
+      <c r="B104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="J104" s="23"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="J105" s="21"/>
+      <c r="B105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="J105" s="23"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="J106" s="21"/>
+      <c r="B106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="J106" s="23"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="J107" s="21"/>
+      <c r="B107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="J107" s="23"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="J108" s="21"/>
+      <c r="B108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="J108" s="23"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="J109" s="21"/>
+      <c r="B109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="J109" s="23"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="J110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="J110" s="23"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="J111" s="21"/>
+      <c r="B111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="J111" s="23"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="J112" s="21"/>
+      <c r="B112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="J112" s="23"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="J113" s="21"/>
+      <c r="B113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="J113" s="23"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="J114" s="21"/>
+      <c r="B114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="J114" s="23"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="J115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="J115" s="23"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="J116" s="21"/>
+      <c r="B116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="J116" s="23"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="J117" s="21"/>
+      <c r="B117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="J117" s="23"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="J118" s="21"/>
+      <c r="B118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="J119" s="21"/>
+      <c r="B119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="J119" s="23"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="J120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="J120" s="23"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="J121" s="21"/>
+      <c r="B121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="J122" s="21"/>
+      <c r="B122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="J122" s="23"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="J123" s="21"/>
+      <c r="B123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="J124" s="21"/>
+      <c r="B124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="J125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="J126" s="21"/>
+      <c r="B126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="J126" s="23"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="J127" s="21"/>
+      <c r="B127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="J128" s="21"/>
+      <c r="B128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="J129" s="21"/>
+      <c r="B129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="J129" s="23"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="J130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="J130" s="23"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="J131" s="21"/>
+      <c r="B131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="J131" s="23"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="J132" s="21"/>
+      <c r="B132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="J132" s="23"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="J133" s="21"/>
+      <c r="B133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="J133" s="23"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="J134" s="21"/>
+      <c r="B134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="J134" s="23"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="J135" s="21"/>
+      <c r="B135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="J136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="J136" s="23"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="J137" s="21"/>
+      <c r="B137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="J137" s="23"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="J138" s="21"/>
+      <c r="B138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="J138" s="23"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="J139" s="21"/>
+      <c r="B139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="J139" s="23"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="J140" s="21"/>
+      <c r="B140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="J140" s="23"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="J141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="J141" s="23"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="J142" s="21"/>
+      <c r="B142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="J142" s="23"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="J143" s="21"/>
+      <c r="B143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="J143" s="23"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="J144" s="21"/>
+      <c r="B144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="J144" s="23"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="J145" s="21"/>
+      <c r="B145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="J145" s="23"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="J146" s="21"/>
+      <c r="B146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="J146" s="23"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="J147" s="21"/>
+      <c r="B147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="J147" s="23"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="J148" s="21"/>
+      <c r="B148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="J148" s="23"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="J149" s="21"/>
+      <c r="B149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="J149" s="23"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="J150" s="21"/>
+      <c r="B150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="J150" s="23"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="J151" s="21"/>
+      <c r="B151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="J151" s="23"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="J152" s="21"/>
+      <c r="B152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="J152" s="23"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="J153" s="21"/>
+      <c r="B153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="J153" s="23"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="J154" s="21"/>
+      <c r="B154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="J154" s="23"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="J155" s="21"/>
+      <c r="B155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="J155" s="23"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="J156" s="21"/>
+      <c r="B156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="J156" s="23"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="J157" s="21"/>
+      <c r="B157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="J157" s="23"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="J158" s="21"/>
+      <c r="B158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="J158" s="23"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="J159" s="21"/>
+      <c r="B159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="J159" s="23"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="J160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="J160" s="23"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="J161" s="21"/>
+      <c r="B161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="J161" s="23"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="J162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="J162" s="23"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="J163" s="21"/>
+      <c r="B163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="J163" s="23"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="J164" s="21"/>
+      <c r="B164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="J164" s="23"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="J165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="J165" s="23"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="J166" s="21"/>
+      <c r="B166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="J166" s="23"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="J167" s="21"/>
+      <c r="B167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="J167" s="23"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="J168" s="21"/>
+      <c r="B168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="J168" s="23"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="20"/>
-      <c r="E169" s="20"/>
-      <c r="J169" s="21"/>
+      <c r="B169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="J169" s="23"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="J170" s="21"/>
+      <c r="B170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="J170" s="23"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="J171" s="21"/>
+      <c r="B171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="J171" s="23"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="J172" s="21"/>
+      <c r="B172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="J172" s="23"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="J173" s="21"/>
+      <c r="B173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="J173" s="23"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="J174" s="21"/>
+      <c r="B174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="J174" s="23"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="J175" s="21"/>
+      <c r="B175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="J175" s="23"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="J176" s="21"/>
+      <c r="B176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="J176" s="23"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="J177" s="21"/>
+      <c r="B177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="J177" s="23"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="J178" s="21"/>
+      <c r="B178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="J178" s="23"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="J179" s="21"/>
+      <c r="B179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="J179" s="23"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="J180" s="21"/>
+      <c r="B180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="J180" s="23"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="J181" s="21"/>
+      <c r="B181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="J181" s="23"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="J182" s="21"/>
+      <c r="B182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="J182" s="23"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="J183" s="21"/>
+      <c r="B183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="J183" s="23"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="J184" s="21"/>
+      <c r="B184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="J184" s="23"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="20"/>
-      <c r="E185" s="20"/>
-      <c r="J185" s="21"/>
+      <c r="B185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="J185" s="23"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="20"/>
-      <c r="E186" s="20"/>
-      <c r="J186" s="21"/>
+      <c r="B186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="J186" s="23"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="20"/>
-      <c r="E187" s="20"/>
-      <c r="J187" s="21"/>
+      <c r="B187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="J187" s="23"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="20"/>
-      <c r="E188" s="20"/>
-      <c r="J188" s="21"/>
+      <c r="B188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="J188" s="23"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="J189" s="21"/>
+      <c r="B189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="J189" s="23"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="20"/>
-      <c r="E190" s="20"/>
-      <c r="J190" s="21"/>
+      <c r="B190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="J190" s="23"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="J191" s="21"/>
+      <c r="B191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="J191" s="23"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="J192" s="21"/>
+      <c r="B192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="J192" s="23"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="J193" s="21"/>
+      <c r="B193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="J193" s="23"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="J194" s="21"/>
+      <c r="B194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="J194" s="23"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="J195" s="21"/>
+      <c r="B195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="J195" s="23"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="J196" s="21"/>
+      <c r="B196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="J196" s="23"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="20"/>
-      <c r="E197" s="20"/>
-      <c r="J197" s="21"/>
+      <c r="B197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="J197" s="23"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="20"/>
-      <c r="E198" s="20"/>
-      <c r="J198" s="21"/>
+      <c r="B198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="J198" s="23"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="J199" s="21"/>
+      <c r="B199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="J199" s="23"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="20"/>
-      <c r="E200" s="20"/>
-      <c r="J200" s="21"/>
+      <c r="B200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="J200" s="23"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="J201" s="21"/>
+      <c r="B201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="J201" s="23"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="J202" s="21"/>
+      <c r="B202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="J202" s="23"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="J203" s="21"/>
+      <c r="B203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="J203" s="23"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="J204" s="21"/>
+      <c r="B204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="J204" s="23"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="J205" s="21"/>
+      <c r="B205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="J205" s="23"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="J206" s="21"/>
+      <c r="B206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="J206" s="23"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="20"/>
-      <c r="E207" s="20"/>
-      <c r="J207" s="21"/>
+      <c r="B207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="J207" s="23"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="J208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="J208" s="23"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="20"/>
-      <c r="E209" s="20"/>
-      <c r="J209" s="21"/>
+      <c r="B209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="J209" s="23"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="J210" s="21"/>
+      <c r="B210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="J210" s="23"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="20"/>
-      <c r="E211" s="20"/>
-      <c r="J211" s="21"/>
+      <c r="B211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="J211" s="23"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="J212" s="21"/>
+      <c r="B212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="J212" s="23"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="J213" s="21"/>
+      <c r="B213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="J213" s="23"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="J214" s="21"/>
+      <c r="B214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="J214" s="23"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="J215" s="21"/>
+      <c r="B215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="J215" s="23"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="J216" s="21"/>
+      <c r="B216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="J216" s="23"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="J217" s="21"/>
+      <c r="B217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="J217" s="23"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="20"/>
-      <c r="E218" s="20"/>
-      <c r="J218" s="21"/>
+      <c r="B218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="J218" s="23"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="J219" s="21"/>
+      <c r="B219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="J219" s="23"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="20"/>
-      <c r="E220" s="20"/>
-      <c r="J220" s="21"/>
+      <c r="B220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="J220" s="23"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3749,14 +3735,6 @@
       <formula>NOT(ISERROR(SEARCH("Blocked",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="www.saucedemo.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="www.saucedemo.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="www.saucedemo.com"/>
-    <hyperlink ref="E5" r:id="rId4" display="www.saucedemo.com"/>
-    <hyperlink ref="E6" r:id="rId5" display="www.saucedemo.com"/>
-    <hyperlink ref="E7" r:id="rId6" display="www.saucedemo.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3792,68 +3770,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>133</v>
+      <c r="I1" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
+      <c r="A2" s="25" t="n">
         <f aca="false">COUNTIF(TestCases!B2:B60,"*")</f>
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="25" t="n">
         <f aca="false">COUNTIF(TestCases!I2:O60,"Pass")</f>
         <v>24</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="25" t="n">
         <f aca="false">COUNTIF(TestCases!I2:I60,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="25" t="n">
         <f aca="false">COUNTIF(TestCases!I2:I60,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="25" t="n">
         <f aca="false">B2+C2</f>
         <v>25</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="26" t="n">
         <f aca="false">(D2/A2)*100</f>
         <v>0</v>
       </c>
-      <c r="G2" s="25" t="n">
+      <c r="G2" s="27" t="n">
         <f aca="false">(C2/A2)*100</f>
         <v>4</v>
       </c>
-      <c r="H2" s="24" t="n">
+      <c r="H2" s="26" t="n">
         <f aca="false">(B2/A2)*100</f>
         <v>96</v>
       </c>
-      <c r="I2" s="25" t="n">
+      <c r="I2" s="27" t="n">
         <f aca="false">((B2+C2)/A2)*100</f>
         <v>100</v>
       </c>
